--- a/StructureDefinition-solicitud-hospitalizacion.xlsx
+++ b/StructureDefinition-solicitud-hospitalizacion.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T15:47:06-04:00</t>
+    <t>2023-06-30T18:27:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-solicitud-hospitalizacion.xlsx
+++ b/StructureDefinition-solicitud-hospitalizacion.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="475">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T18:27:12-04:00</t>
+    <t>2023-09-13T17:11:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
     <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
   </si>
   <si>
+    <t>bdystr-1:bodyStructure SHALL only be present if bodySite is not present {bodySite.exists() implies bodyStructure.empty()}
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
+  </si>
+  <si>
     <t>Request</t>
   </si>
   <si>
@@ -580,16 +584,16 @@
     <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
-    <t>The status of the order.</t>
+    <t>Estado de la solicitud</t>
   </si>
   <si>
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, revoked or placed on-hold. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R5/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R5/task.html) resource.</t>
   </si>
   <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|5.0.0</t>
+    <t>Códigos Propios del estándar</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -610,13 +614,13 @@
     <t>ServiceRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | directive | order +</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+    <t>Intención de la solicitud</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
   <si>
     <t>The kind of service request.</t>
@@ -930,7 +934,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/PacienteHLF)
 </t>
   </si>
   <si>
@@ -975,14 +979,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/registro-atencion)
 </t>
   </si>
   <si>
-    <t>Encounter in which the request was created</t>
-  </si>
-  <si>
-    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
+    <t>Referencia al encuentro desde el cual se generó la solicitud</t>
+  </si>
+  <si>
+    <t>Referencia al recurso Registro de Atención generado durante la atención de urgencia</t>
   </si>
   <si>
     <t>Request.encounter</t>
@@ -1007,8 +1011,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiming</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>When service should occur</t>
@@ -1017,6 +1021,13 @@
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1030,6 +1041,18 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]:occurrenceDateTime</t>
+  </si>
+  <si>
+    <t>occurrenceDateTime</t>
+  </si>
+  <si>
+    <t>Fecha deseable de hospitalización dd-mm-aaaa</t>
+  </si>
+  <si>
+    <t>Fecha deseable de hospitalización en formato dd-mm-aaaa</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -1064,14 +1087,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date request signed</t>
-  </si>
-  <si>
-    <t>When the request transitioned to being actionable.</t>
+    <t>Fecha y hora en la cual se realizó la solicitud</t>
+  </si>
+  <si>
+    <t>Formato FHIR</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -1165,14 +1184,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/unidad-clinica-hlf)
 </t>
   </si>
   <si>
-    <t>Requested performer</t>
-  </si>
-  <si>
-    <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
+    <t>Unidad Clínica destino de la solicitud de hospitalización</t>
   </si>
   <si>
     <t>If multiple performers are present, it is interpreted as a list of *alternative* performers without any preference regardless of order.  If order of preference is needed use the [http://hl7.org/fhir/StructureDefinition/request-performerOrder](http://hl7.org/fhir/extensions/StructureDefinition-request-performerOrder.html).  Use CareTeam to represent a group of performers (for example, Practitioner A *and* Practitioner B).</t>
@@ -1212,14 +1228,14 @@
     <t>ServiceRequest.reason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Condition|Observation|DiagnosticReport|DocumentReference|DetectedIssue)
+    <t xml:space="preserve">CodeableReference(https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/DiagnosticoCondHLf)
 </t>
   </si>
   <si>
-    <t>Explanation/Justification for procedure or service</t>
-  </si>
-  <si>
-    <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
+    <t>Diagnóstico por el cual se hace la solicitud de Hospitalización</t>
+  </si>
+  <si>
+    <t>Referencia al diagnóstico mediante el cual el paciente debe ser derivado a hospitalización</t>
   </si>
   <si>
     <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all. To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise, use `concept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R5/servicerequest-example-di.html).</t>
@@ -1375,10 +1391,10 @@
 </t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
+    <t>Observaciones en texto libre</t>
+  </si>
+  <si>
+    <t>Observaciones o comentarios, en especial para cuando la solicitud de servicio requiere mas información</t>
   </si>
   <si>
     <t>Request.note</t>
@@ -1388,6 +1404,68 @@
   </si>
   <si>
     <t>ClinicalStatement.additionalText</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Campo de texto con observaciones</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
   </si>
   <si>
     <t>ServiceRequest.patientInstruction</t>
@@ -1751,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO60"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1760,16 +1838,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.37890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="35.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="35.87109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="129.62890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1778,27 +1856,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="8.734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.6171875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.8203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.6171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="6.75" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="43.24609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.03515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="16.77734375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="82.15234375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="158.23046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="27.73828125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="16.35546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="84.56640625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="157.5625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1898,19 +1976,19 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>38</v>
@@ -1918,10 +1996,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1932,7 +2010,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1941,19 +2019,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2003,13 +2081,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2035,10 +2113,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2049,7 +2127,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2058,16 +2136,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2118,19 +2196,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2150,10 +2228,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2164,28 +2242,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2235,19 +2313,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2267,10 +2345,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2281,7 +2359,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2293,16 +2371,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2328,13 +2406,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2352,19 +2430,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2384,21 +2462,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2410,16 +2488,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2469,19 +2547,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2493,7 +2571,7 @@
         <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>38</v>
@@ -2501,14 +2579,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2527,16 +2605,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2586,7 +2664,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2595,7 +2673,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
@@ -2610,7 +2688,7 @@
         <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>38</v>
@@ -2618,10 +2696,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2629,7 +2707,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -2644,13 +2722,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2689,17 +2767,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2711,7 +2789,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2731,26 +2809,26 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>38</v>
@@ -2759,13 +2837,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2816,7 +2894,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2828,7 +2906,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2848,26 +2926,26 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>38</v>
@@ -2876,13 +2954,13 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2933,7 +3011,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2945,7 +3023,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2965,26 +3043,26 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>38</v>
@@ -2993,13 +3071,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3050,7 +3128,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3062,7 +3140,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -3082,26 +3160,26 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>38</v>
@@ -3110,13 +3188,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3167,7 +3245,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3179,7 +3257,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3199,14 +3277,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3219,25 +3297,25 @@
         <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3286,7 +3364,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -3298,7 +3376,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -3310,7 +3388,7 @@
         <v>38</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>38</v>
@@ -3318,10 +3396,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3341,19 +3419,19 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3403,7 +3481,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -3415,30 +3493,30 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3458,19 +3536,19 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3520,7 +3598,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3532,19 +3610,19 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>38</v>
@@ -3552,10 +3630,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3575,19 +3653,19 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3637,7 +3715,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3649,19 +3727,19 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>38</v>
@@ -3669,14 +3747,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3692,16 +3770,16 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3752,7 +3830,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -3764,19 +3842,19 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>38</v>
@@ -3784,14 +3862,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3807,16 +3885,16 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3867,7 +3945,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3879,19 +3957,19 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>38</v>
@@ -3899,21 +3977,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3922,22 +4000,22 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3986,31 +4064,31 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>38</v>
@@ -4018,10 +4096,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4029,31 +4107,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4079,13 +4157,13 @@
         <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>38</v>
@@ -4103,42 +4181,42 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4146,25 +4224,25 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>188</v>
@@ -4181,7 +4259,7 @@
         <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>38</v>
@@ -4196,13 +4274,13 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>38</v>
@@ -4220,31 +4298,31 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4252,10 +4330,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4275,22 +4353,22 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4315,13 +4393,13 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>38</v>
@@ -4339,7 +4417,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4351,19 +4429,19 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4371,10 +4449,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4385,7 +4463,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4394,16 +4472,16 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4411,7 +4489,7 @@
         <v>38</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>38</v>
@@ -4432,13 +4510,13 @@
         <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>38</v>
@@ -4456,31 +4534,31 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4488,10 +4566,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4502,97 +4580,97 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH24" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="J24" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="P24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>38</v>
@@ -4601,7 +4679,7 @@
         <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>38</v>
@@ -4609,21 +4687,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4632,19 +4710,19 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4670,13 +4748,13 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -4694,46 +4772,46 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4749,19 +4827,19 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4811,7 +4889,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -4820,10 +4898,10 @@
         <v>37</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -4832,7 +4910,7 @@
         <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>38</v>
@@ -4843,10 +4921,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4857,7 +4935,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4869,13 +4947,13 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4926,16 +5004,16 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>38</v>
@@ -4950,7 +5028,7 @@
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>38</v>
@@ -4958,14 +5036,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4984,16 +5062,16 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5043,7 +5121,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5055,7 +5133,7 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -5067,7 +5145,7 @@
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -5075,14 +5153,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5095,25 +5173,25 @@
         <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5162,7 +5240,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5174,7 +5252,7 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -5186,7 +5264,7 @@
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5194,10 +5272,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5208,7 +5286,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5220,13 +5298,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5277,19 +5355,19 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -5309,10 +5387,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5320,7 +5398,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>37</v>
@@ -5332,16 +5410,16 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5392,10 +5470,10 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>37</v>
@@ -5404,7 +5482,7 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -5424,10 +5502,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5438,7 +5516,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5450,13 +5528,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5507,16 +5585,16 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>38</v>
@@ -5531,7 +5609,7 @@
         <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5539,14 +5617,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5565,16 +5643,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5624,7 +5702,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5636,7 +5714,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5648,7 +5726,7 @@
         <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>38</v>
@@ -5656,14 +5734,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5676,25 +5754,25 @@
         <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5743,7 +5821,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -5755,7 +5833,7 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -5767,7 +5845,7 @@
         <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>38</v>
@@ -5775,10 +5853,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5786,10 +5864,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5798,16 +5876,16 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5834,13 +5912,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -5858,19 +5936,19 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
@@ -5890,10 +5968,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5901,10 +5979,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5913,19 +5991,19 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5975,19 +6053,19 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -6007,10 +6085,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6021,7 +6099,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -6030,20 +6108,20 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -6092,19 +6170,19 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -6113,10 +6191,10 @@
         <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>
@@ -6124,10 +6202,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6135,28 +6213,28 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6207,42 +6285,42 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6262,16 +6340,16 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6322,7 +6400,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6334,19 +6412,19 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6354,39 +6432,39 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6437,53 +6515,53 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6492,16 +6570,16 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6540,83 +6618,83 @@
         <v>38</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>38</v>
+        <v>318</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="D42" t="s" s="2">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6643,13 +6721,13 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>326</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -6667,53 +6745,53 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AN42" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6722,16 +6800,16 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6758,13 +6836,13 @@
         <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>38</v>
@@ -6782,75 +6860,73 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6899,53 +6975,53 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6954,19 +7030,19 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>196</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6992,77 +7068,77 @@
         <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7071,19 +7147,19 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>197</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7109,13 +7185,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>362</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7133,31 +7209,31 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>38</v>
@@ -7165,14 +7241,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7188,18 +7264,20 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7224,13 +7302,13 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>374</v>
+        <v>38</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>375</v>
+        <v>38</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
@@ -7248,7 +7326,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -7260,19 +7338,19 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>38</v>
+        <v>372</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>38</v>
+        <v>373</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>38</v>
@@ -7280,10 +7358,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7303,20 +7381,18 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7341,13 +7417,13 @@
         <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>38</v>
@@ -7365,7 +7441,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -7377,19 +7453,19 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>384</v>
+        <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>386</v>
+        <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>38</v>
@@ -7397,10 +7473,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7408,30 +7484,32 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7456,13 +7534,13 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>38</v>
+        <v>387</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>38</v>
+        <v>388</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
@@ -7480,7 +7558,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7492,19 +7570,19 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
@@ -7512,14 +7590,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>396</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7538,17 +7616,15 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7597,7 +7673,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7609,19 +7685,19 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>38</v>
@@ -7629,14 +7705,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>38</v>
+        <v>401</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7652,19 +7728,19 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7714,7 +7790,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -7726,19 +7802,19 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>38</v>
+        <v>406</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -7746,14 +7822,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>412</v>
+        <v>38</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7769,23 +7845,21 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>196</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>416</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>38</v>
       </c>
@@ -7809,13 +7883,13 @@
         <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>417</v>
+        <v>38</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>418</v>
+        <v>38</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>38</v>
@@ -7833,7 +7907,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -7842,10 +7916,10 @@
         <v>37</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>419</v>
+        <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
@@ -7854,32 +7928,32 @@
         <v>38</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>421</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -7888,20 +7962,22 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>424</v>
+        <v>197</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7926,13 +8002,13 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>38</v>
+        <v>422</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>38</v>
+        <v>423</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -7950,19 +8026,19 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -7971,10 +8047,10 @@
         <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>426</v>
@@ -7989,14 +8065,14 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>38</v>
+        <v>428</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -8005,19 +8081,21 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
       </c>
@@ -8071,36 +8149,36 @@
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>424</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>433</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8111,10 +8189,10 @@
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>38</v>
@@ -8123,13 +8201,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>241</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8180,7 +8258,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -8192,30 +8270,30 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>437</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>38</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8226,7 +8304,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8238,13 +8316,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8295,16 +8373,16 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>38</v>
@@ -8319,7 +8397,7 @@
         <v>38</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>38</v>
@@ -8327,14 +8405,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8353,16 +8431,16 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8400,19 +8478,19 @@
         <v>38</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8424,7 +8502,7 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -8436,7 +8514,7 @@
         <v>38</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>38</v>
@@ -8444,46 +8522,44 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>95</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>259</v>
+        <v>444</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>260</v>
+        <v>445</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>38</v>
       </c>
@@ -8531,19 +8607,19 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>261</v>
+        <v>447</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -8552,10 +8628,10 @@
         <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>92</v>
+        <v>448</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>38</v>
@@ -8563,10 +8639,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8577,7 +8653,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8586,16 +8662,16 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>442</v>
+        <v>314</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8646,19 +8722,19 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -8667,10 +8743,10 @@
         <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>245</v>
+        <v>93</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>38</v>
@@ -8678,10 +8754,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8689,32 +8765,30 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -8763,38 +8837,736 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AH60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="AI60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AO60" t="s" s="2">
+      <c r="H61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO60">
+  <autoFilter ref="A1:AO66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8804,7 +9576,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
